--- a/controller/김예찬_4차신입과제.xlsx
+++ b/controller/김예찬_4차신입과제.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRIZEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65868439-9080-4841-8869-5D6C8FB26DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7055C-1BC9-411D-8119-B9D290EE9F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3861D187-E4A1-49A3-948C-DF5AAB90AD94}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>제출자료</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,30 @@
       <t xml:space="preserve">  : 게시판 등록, 변경, 삭제 시 로그인 한 사용자 자동 등록되도록 로직 수정.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kimcoder.tistory.com/244?category=911141</t>
+  </si>
+  <si>
+    <t>security 정리 잘 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://12716.tistory.com/entry/%EC%95%8C%EA%B3%A0%EB%A6%AC%EC%A6%98%EB%B0%B1%EC%A4%80Baekjoon%EB%B0%B1%EC%A4%80-NO10430-Java%EC%9E%90%EB%B0%94%EB%A1%9C-%ED%92%80%EC%96%B4%EB%B3%B4%EA%B8%B0</t>
+  </si>
+  <si>
+    <t>405 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://codevang.tistory.com/268</t>
+  </si>
+  <si>
+    <t>security 정리 잘 됨 222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://taesan94.tistory.com/124</t>
   </si>
 </sst>
 </file>
@@ -701,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0965E9EE-F035-40D5-8763-69BD3EF4B233}">
-  <dimension ref="B3:F10"/>
+  <dimension ref="B3:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -769,8 +793,35 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="10" spans="2:6" ht="24" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
